--- a/Test Case/Validazione/7-Referto Specialistico Ambulatoriale/CDA2_Referto_Specialistica_Ambulatoriale_OK.xlsx
+++ b/Test Case/Validazione/7-Referto Specialistico Ambulatoriale/CDA2_Referto_Specialistica_Ambulatoriale_OK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sites.ey.com/sites/IBM-SOGEI-Sogei-FSE2.0-GTW/Shared Documents/Sogei - FSE 2.0 - GTW/02.  Accreditamento - contributo SME per checklist/Validazione/[Accreditamento_Fornitori] - Casi d'uso OK &amp; KO - consegna finale1/7-Referto Specialistico Ambulatoriale/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sites.ey.com/sites/IBM-SOGEI-Sogei-FSE2.0-GTW/Shared Documents/Sogei - FSE 2.0 - GTW/02.  Accreditamento - contributo SME per checklist/Validazione/[Accreditamento_Fornitori] - Casi d'uso OK &amp; KO - 20230515/7-Referto Specialistico Ambulatoriale/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="339" documentId="11_ACDBE299CF2272B2C520EBC008FBC02D2B020E60" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{872B042C-9638-4B58-A57F-FB88B5F3C80E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4740" yWindow="4848" windowWidth="13836" windowHeight="7176" tabRatio="696" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LEGENDA" sheetId="7" r:id="rId1"/>
@@ -3344,8 +3344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AF6997-0F00-4EDE-819F-CDBAEBB48B1A}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15922,8 +15922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96759115-AE02-4FA8-A1B9-116DE17C4AC5}">
   <dimension ref="A1:G381"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A302" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A308" sqref="A308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24394,18 +24394,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d04b37e-0497-498c-96f6-8855740e5edb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010099D50BAF6148C0469FC2106F96A8440B" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7768c764893153760d939b2a04face0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d04b37e-0497-498c-96f6-8855740e5edb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ef69b4f9d45f678c0f7c9c89f8623db" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010099D50BAF6148C0469FC2106F96A8440B" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3616f7cdf760fe2f884fd0a778c49">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d04b37e-0497-498c-96f6-8855740e5edb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c3fd18c48359e9e41420637ffdf156b4" ns2:_="">
     <xsd:import namespace="3d04b37e-0497-498c-96f6-8855740e5edb"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -24421,6 +24420,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -24471,6 +24471,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -24576,52 +24581,39 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d04b37e-0497-498c-96f6-8855740e5edb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D459E488-B92A-4806-9B37-25CEAAE60A88}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19BE6716-38FC-45EA-95BE-0FC49EFEBC76}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3d04b37e-0497-498c-96f6-8855740e5edb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{809F85FF-002C-4166-A702-986D7EB51BC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3d04b37e-0497-498c-96f6-8855740e5edb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{894AB046-E839-4461-A280-8A32AA39BC5C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19BE6716-38FC-45EA-95BE-0FC49EFEBC76}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D459E488-B92A-4806-9B37-25CEAAE60A88}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d04b37e-0497-498c-96f6-8855740e5edb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>